--- a/com.jumiafoods/src/test/resources/TestData.xlsx
+++ b/com.jumiafoods/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{EA19629F-9F6A-490F-BB14-CD9EA17C4B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4CA81B44-2667-4AEF-A81D-CD358B658016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1380" windowWidth="20790" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="2550" windowWidth="20790" windowHeight="11820" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddMenu (4)" sheetId="16" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="DP" sheetId="17" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:Q19"/>
+  <oleSize ref="A1:I17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -649,7 +649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313CE417-E352-445F-BB5F-24758CBBC8C0}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1186,7 +1186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A11113-2C6E-4776-B2A0-57DF0CE238F5}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
